--- a/medicine/Psychotrope/Brasseurs_RJ/Brasseurs_RJ.xlsx
+++ b/medicine/Psychotrope/Brasseurs_RJ/Brasseurs_RJ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Brasseurs RJ ou BRJ est une brasserie québécoise issue de la fusion, en 1998 de trois microbrasseries : Les Brasseurs GMT (Montréal), La Brasserie du Cheval Blanc et les Brasseurs de l'Anse. Elle est la brasserie régionale la plus importante au Québec et elle y occupe le quatrième rang en termes de vente, après Molson-Coors, InBev (Labatt) et Sleeman (Sapporo Breweries). Elle compte deux unités de production, soit une brasserie sur le Plateau Mont-Royal, en plein cœur de Montréal, et une au Saguenay-Lac-Saint-Jean, à l'Anse-Saint-Jean. 
-La société Les Brasseurs RJ Inc., qui détenait depuis juin 2008 45 % des actions de la Brasserie McAuslan de Montréal s'est portée acquéreur en avril 2013[2] du restant des actions de cette dernière, en faisant l'unique actionnaire.
+La société Les Brasseurs RJ Inc., qui détenait depuis juin 2008 45 % des actions de la Brasserie McAuslan de Montréal s'est portée acquéreur en avril 2013 du restant des actions de cette dernière, en faisant l'unique actionnaire.
 </t>
         </is>
       </c>
@@ -515,9 +527,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brasseurs RJ
-Classique
-La Belle-Gueule
+          <t>Brasseurs RJ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Classique</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Belle-Gueule
 La Tremblay
 La Tremblay X-Treme
 La Cheval Blanc
@@ -527,9 +547,47 @@
 La Titanic
 La Double Cheval Blanc
 La Barbãr (brassée sous licence)
-La Robe Noire
-Saisonnière
-La Tord-vis
+La Robe Noire</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Brasseurs RJ</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Saisonnière</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Tord-vis
 La Sainte-Paix
 La Snoreau
 La Folie Douce
@@ -537,10 +595,47 @@
 La Canon
 La Blanche de l'Ile
 La No.926
-L'Apocalypse
-Brasserie McAuslan
-St-Ambroise
-Régulières
+L'Apocalypse</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Brasserie McAuslan</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>St-Ambroise</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Régulières
 Blonde
 IPA
 Double IPA
@@ -555,41 +650,119 @@
 À l'érable
 Millésimée
 Scotch Ale
-Stout impériale russe
-Griffon
-Blonde
-Rousse
-Moosehead
-Lager
+Stout impériale russe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brasserie McAuslan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Griffon</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Blonde
+Rousse</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Brasserie McAuslan</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Moosehead</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lager
 Light</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Brasseurs_RJ</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bitburger
 König Pilsner
@@ -602,31 +775,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Brasseurs_RJ</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Brasseurs_RJ</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Brasseurs RJ.com
 Les Affaires.com
